--- a/database/template/BAT.xlsx
+++ b/database/template/BAT.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="350">
   <si>
     <t>BAT</t>
-  </si>
-  <si>
-    <t>BAN0311</t>
   </si>
   <si>
     <t>BAT_T3</t>
@@ -1440,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:E335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,21 +1452,21 @@
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1477,17 +1474,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B65" si="0">IF(LEN(C2)=6,LEFT(C2,3)&amp;"0"&amp;RIGHT(C2,3),C2)</f>
-        <v>BAN0311</v>
+        <f t="shared" ref="B2:B64" si="0">IF(LEN(C2)=6,LEFT(C2,3)&amp;"0"&amp;RIGHT(C2,3),C2)</f>
+        <v>BAT0001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1496,16 +1493,16 @@
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0001</v>
+        <v>BAT0002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1514,16 +1511,16 @@
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0002</v>
+        <v>BAT0003</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1532,16 +1529,16 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0003</v>
+        <v>BAT0004</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1550,16 +1547,16 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0004</v>
+        <v>BAT0005</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1568,16 +1565,16 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0005</v>
+        <v>BAT0006</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1586,16 +1583,16 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0006</v>
+        <v>BAT0009</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1604,16 +1601,16 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0009</v>
+        <v>BAT0011</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1622,16 +1619,16 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0011</v>
+        <v>BAT0012</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1640,16 +1637,16 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0012</v>
+        <v>BAT0013</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1658,16 +1655,16 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0013</v>
+        <v>BAT0015</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1676,16 +1673,16 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0015</v>
+        <v>BAT0017</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1694,16 +1691,16 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0017</v>
+        <v>BAT0018</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1712,16 +1709,16 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0018</v>
+        <v>BAT0019</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1730,16 +1727,16 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0019</v>
+        <v>BAT0020</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1748,16 +1745,16 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0020</v>
+        <v>BAT0021</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1766,16 +1763,16 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0021</v>
+        <v>BAT0022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1784,16 +1781,16 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0022</v>
+        <v>BAT0023</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1802,16 +1799,16 @@
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0023</v>
+        <v>BAT0024</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1820,16 +1817,16 @@
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0024</v>
+        <v>BAT0025</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1838,16 +1835,16 @@
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0025</v>
+        <v>BAT0026</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1856,16 +1853,16 @@
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0026</v>
+        <v>BAT0028</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1874,16 +1871,16 @@
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0028</v>
+        <v>BAT0029</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1892,16 +1889,16 @@
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0029</v>
+        <v>BAT0030</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1910,16 +1907,16 @@
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0030</v>
+        <v>BAT0031</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1928,16 +1925,16 @@
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0031</v>
+        <v>BAT0032</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1946,16 +1943,16 @@
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0032</v>
+        <v>BAT0033</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1964,16 +1961,16 @@
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0033</v>
+        <v>BAT0335</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1982,16 +1979,16 @@
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0335</v>
+        <v>BAT0336</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2000,16 +1997,16 @@
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0336</v>
+        <v>BAT0337</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2018,16 +2015,16 @@
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0337</v>
+        <v>BAT0338</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2036,16 +2033,16 @@
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0338</v>
+        <v>BAT0339</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2054,16 +2051,16 @@
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0339</v>
+        <v>BAT0342</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2072,16 +2069,16 @@
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0342</v>
+        <v>BAT0343</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2090,16 +2087,16 @@
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0343</v>
+        <v>BAT0344</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2108,16 +2105,16 @@
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0344</v>
+        <v>BAT0345</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2126,16 +2123,16 @@
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0345</v>
+        <v>BAT0346</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2144,16 +2141,16 @@
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0346</v>
+        <v>BAT0347</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2162,16 +2159,16 @@
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0347</v>
+        <v>BAT0348</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2180,16 +2177,16 @@
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0348</v>
+        <v>BAT0349</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2198,16 +2195,16 @@
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0349</v>
+        <v>BAT0035</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2216,16 +2213,16 @@
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0035</v>
+        <v>BAT0350</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2234,16 +2231,16 @@
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0350</v>
+        <v>BAT0351</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2252,16 +2249,16 @@
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0351</v>
+        <v>BAT0352</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2270,16 +2267,16 @@
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0352</v>
+        <v>BAT0353</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2288,16 +2285,16 @@
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0353</v>
+        <v>BAT0354</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2306,16 +2303,16 @@
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0354</v>
+        <v>BAT0355</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2324,16 +2321,16 @@
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0355</v>
+        <v>BAT0356</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2342,16 +2339,16 @@
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0356</v>
+        <v>BAT0357</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2360,16 +2357,16 @@
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0357</v>
+        <v>BAT0358</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2378,16 +2375,16 @@
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0358</v>
+        <v>BAT0036</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2396,16 +2393,16 @@
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0036</v>
+        <v>BAT0361</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2414,16 +2411,16 @@
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0361</v>
+        <v>BAT0362</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2432,16 +2429,16 @@
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0362</v>
+        <v>BAT0363</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2450,16 +2447,16 @@
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0363</v>
+        <v>BAT0364</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2468,16 +2465,16 @@
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0364</v>
+        <v>BAT0365</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2486,16 +2483,16 @@
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0365</v>
+        <v>BAT0366</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2504,16 +2501,16 @@
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0366</v>
+        <v>BAT0367</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2522,16 +2519,16 @@
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0367</v>
+        <v>BAT0368</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2540,16 +2537,16 @@
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0368</v>
+        <v>BAT0369</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2558,16 +2555,16 @@
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0369</v>
+        <v>BAT0370</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2576,16 +2573,16 @@
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0370</v>
+        <v>BAT0371</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2594,16 +2591,16 @@
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BAT0371</v>
+        <v>BAT0372</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2611,17 +2608,17 @@
         <v>0</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>BAT0372</v>
+        <f t="shared" ref="B65:B128" si="1">IF(LEN(C65)=6,LEFT(C65,3)&amp;"0"&amp;RIGHT(C65,3),C65)</f>
+        <v>BAT0373</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2629,17 +2626,17 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ref="B66:B129" si="1">IF(LEN(C66)=6,LEFT(C66,3)&amp;"0"&amp;RIGHT(C66,3),C66)</f>
-        <v>BAT0373</v>
+        <f t="shared" si="1"/>
+        <v>BAT0374</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2648,16 +2645,16 @@
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0374</v>
+        <v>BAT0375</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2666,16 +2663,16 @@
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0375</v>
+        <v>BAT0376</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2684,16 +2681,16 @@
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0376</v>
+        <v>BAT0378</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2702,16 +2699,16 @@
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0378</v>
+        <v>BAT0038</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2720,16 +2717,16 @@
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0038</v>
+        <v>BAT0380</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2738,16 +2735,16 @@
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0380</v>
+        <v>BAT0382</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2756,16 +2753,16 @@
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0382</v>
+        <v>BAT0385</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2774,16 +2771,16 @@
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0385</v>
+        <v>BAT0386</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2792,16 +2789,16 @@
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0386</v>
+        <v>BAT0387</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2810,16 +2807,16 @@
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0387</v>
+        <v>BAT0388</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2828,16 +2825,16 @@
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0388</v>
+        <v>BAT0389</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2846,16 +2843,16 @@
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0389</v>
+        <v>BAT0039</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2864,16 +2861,16 @@
       </c>
       <c r="B79" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0039</v>
+        <v>BAT0390</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2882,16 +2879,16 @@
       </c>
       <c r="B80" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0390</v>
+        <v>BAT0391</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2900,16 +2897,16 @@
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0391</v>
+        <v>BAT0392</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2918,16 +2915,16 @@
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0392</v>
+        <v>BAT0393</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2936,16 +2933,16 @@
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0393</v>
+        <v>BAT0394</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2954,16 +2951,16 @@
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0394</v>
+        <v>BAT0395</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2972,16 +2969,16 @@
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0395</v>
+        <v>BAT0396</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2990,16 +2987,16 @@
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0396</v>
+        <v>BAT0397</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3008,16 +3005,16 @@
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0397</v>
+        <v>BAT0040</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3026,16 +3023,16 @@
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0040</v>
+        <v>BAT0401</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3044,16 +3041,16 @@
       </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0401</v>
+        <v>BAT0402</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3062,16 +3059,16 @@
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0402</v>
+        <v>BAT0041</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3080,16 +3077,16 @@
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0041</v>
+        <v>BAT0426</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3098,16 +3095,16 @@
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0426</v>
+        <v>BAT0043</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3116,16 +3113,16 @@
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0043</v>
+        <v>BAT0434</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3134,16 +3131,16 @@
       </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0434</v>
+        <v>BAT0436</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3152,16 +3149,16 @@
       </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0436</v>
+        <v>BAT0437</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3170,16 +3167,16 @@
       </c>
       <c r="B96" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0437</v>
+        <v>BAT0044</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3188,16 +3185,16 @@
       </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0044</v>
+        <v>BAT0448</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3206,16 +3203,16 @@
       </c>
       <c r="B98" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0448</v>
+        <v>BAT0452</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3224,16 +3221,16 @@
       </c>
       <c r="B99" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0452</v>
+        <v>BAT0454</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>22</v>
+      <c r="D99" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3242,16 +3239,16 @@
       </c>
       <c r="B100" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0454</v>
+        <v>BAT0046</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="1" t="e">
-        <v>#N/A</v>
+      <c r="D100" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3260,16 +3257,16 @@
       </c>
       <c r="B101" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0046</v>
+        <v>BAT0047</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3278,16 +3275,16 @@
       </c>
       <c r="B102" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0047</v>
+        <v>BAT0048</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3296,16 +3293,16 @@
       </c>
       <c r="B103" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0048</v>
+        <v>BAT0049</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3314,16 +3311,16 @@
       </c>
       <c r="B104" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0049</v>
+        <v>BAT0050</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3332,16 +3329,16 @@
       </c>
       <c r="B105" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0050</v>
+        <v>BAT0051</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3350,16 +3347,16 @@
       </c>
       <c r="B106" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0051</v>
+        <v>BAT0052</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3368,16 +3365,16 @@
       </c>
       <c r="B107" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0052</v>
+        <v>BAT0054</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3386,16 +3383,16 @@
       </c>
       <c r="B108" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0054</v>
+        <v>BAT0056</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3404,16 +3401,16 @@
       </c>
       <c r="B109" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0056</v>
+        <v>BAT0057</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3422,16 +3419,16 @@
       </c>
       <c r="B110" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0057</v>
+        <v>BAT0058</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3440,16 +3437,16 @@
       </c>
       <c r="B111" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0058</v>
+        <v>BAT0059</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3458,16 +3455,16 @@
       </c>
       <c r="B112" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0059</v>
+        <v>BAT0060</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3476,16 +3473,16 @@
       </c>
       <c r="B113" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0060</v>
+        <v>BAT0061</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3494,16 +3491,16 @@
       </c>
       <c r="B114" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0061</v>
+        <v>BAT0062</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3512,16 +3509,16 @@
       </c>
       <c r="B115" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0062</v>
+        <v>BAT0063</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3530,16 +3527,16 @@
       </c>
       <c r="B116" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0063</v>
+        <v>BAT0064</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3548,16 +3545,16 @@
       </c>
       <c r="B117" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0064</v>
+        <v>BAT0065</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3566,16 +3563,16 @@
       </c>
       <c r="B118" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0065</v>
+        <v>BAT0066</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3584,16 +3581,16 @@
       </c>
       <c r="B119" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0066</v>
+        <v>BAT0067</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3602,16 +3599,16 @@
       </c>
       <c r="B120" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0067</v>
+        <v>BAT0068</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3620,16 +3617,16 @@
       </c>
       <c r="B121" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0068</v>
+        <v>BAT0070</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3638,16 +3635,16 @@
       </c>
       <c r="B122" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0070</v>
+        <v>BAT0071</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3656,16 +3653,16 @@
       </c>
       <c r="B123" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0071</v>
+        <v>BAT0072</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3674,16 +3671,16 @@
       </c>
       <c r="B124" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0072</v>
+        <v>BAT0073</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3692,16 +3689,16 @@
       </c>
       <c r="B125" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0073</v>
+        <v>BAT0074</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3710,16 +3707,16 @@
       </c>
       <c r="B126" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0074</v>
+        <v>BAT0075</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3728,16 +3725,16 @@
       </c>
       <c r="B127" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0075</v>
+        <v>BAT0076</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3746,16 +3743,16 @@
       </c>
       <c r="B128" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>BAT0076</v>
+        <v>BAT0077</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3763,17 +3760,17 @@
         <v>0</v>
       </c>
       <c r="B129" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>BAT0077</v>
+        <f t="shared" ref="B129:B192" si="2">IF(LEN(C129)=6,LEFT(C129,3)&amp;"0"&amp;RIGHT(C129,3),C129)</f>
+        <v>BAT0078</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3781,17 +3778,17 @@
         <v>0</v>
       </c>
       <c r="B130" s="2" t="str">
-        <f t="shared" ref="B130:B193" si="2">IF(LEN(C130)=6,LEFT(C130,3)&amp;"0"&amp;RIGHT(C130,3),C130)</f>
-        <v>BAT0078</v>
+        <f t="shared" si="2"/>
+        <v>BAT0079</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3800,16 +3797,16 @@
       </c>
       <c r="B131" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0079</v>
+        <v>BAT0080</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3818,16 +3815,16 @@
       </c>
       <c r="B132" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0080</v>
+        <v>BAT0081</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3836,16 +3833,16 @@
       </c>
       <c r="B133" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0081</v>
+        <v>BAT0082</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3854,16 +3851,16 @@
       </c>
       <c r="B134" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0082</v>
+        <v>BAT0084</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3872,16 +3869,16 @@
       </c>
       <c r="B135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0084</v>
+        <v>BAT0085</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3890,16 +3887,16 @@
       </c>
       <c r="B136" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0085</v>
+        <v>BAT0095</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3908,16 +3905,16 @@
       </c>
       <c r="B137" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0095</v>
+        <v>BAT0096</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3926,16 +3923,16 @@
       </c>
       <c r="B138" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0096</v>
+        <v>BAT0102</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3944,16 +3941,16 @@
       </c>
       <c r="B139" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0102</v>
+        <v>BAT0105</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3962,16 +3959,16 @@
       </c>
       <c r="B140" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0105</v>
+        <v>BAT0106</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3980,16 +3977,16 @@
       </c>
       <c r="B141" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0106</v>
+        <v>BAT0107</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3998,16 +3995,16 @@
       </c>
       <c r="B142" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0107</v>
+        <v>BAT0108</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4016,16 +4013,16 @@
       </c>
       <c r="B143" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0108</v>
+        <v>BAT0110</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4034,16 +4031,16 @@
       </c>
       <c r="B144" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0110</v>
+        <v>BAT0111</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4052,16 +4049,16 @@
       </c>
       <c r="B145" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0111</v>
+        <v>BAT0112</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4070,16 +4067,16 @@
       </c>
       <c r="B146" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0112</v>
+        <v>BAT0113</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4088,16 +4085,16 @@
       </c>
       <c r="B147" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0113</v>
+        <v>BAT0114</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4106,16 +4103,16 @@
       </c>
       <c r="B148" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0114</v>
+        <v>BAT0115</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4124,16 +4121,16 @@
       </c>
       <c r="B149" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0115</v>
+        <v>BAT0116</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4142,16 +4139,16 @@
       </c>
       <c r="B150" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0116</v>
+        <v>BAT0117</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4160,16 +4157,16 @@
       </c>
       <c r="B151" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0117</v>
+        <v>BAT0118</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4178,16 +4175,16 @@
       </c>
       <c r="B152" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0118</v>
+        <v>BAT0120</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4196,16 +4193,16 @@
       </c>
       <c r="B153" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0120</v>
+        <v>BAT0121</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4214,16 +4211,16 @@
       </c>
       <c r="B154" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0121</v>
+        <v>BAT0122</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4232,16 +4229,16 @@
       </c>
       <c r="B155" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0122</v>
+        <v>BAT0126</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4250,16 +4247,16 @@
       </c>
       <c r="B156" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0126</v>
+        <v>BAT0128</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4268,16 +4265,16 @@
       </c>
       <c r="B157" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0128</v>
+        <v>BAT0157</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4286,16 +4283,16 @@
       </c>
       <c r="B158" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0157</v>
+        <v>BAT0158</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4304,16 +4301,16 @@
       </c>
       <c r="B159" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0158</v>
+        <v>BAT0159</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4322,16 +4319,16 @@
       </c>
       <c r="B160" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0159</v>
+        <v>BAT0160</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4340,16 +4337,16 @@
       </c>
       <c r="B161" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0160</v>
+        <v>BAT0161</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4358,16 +4355,16 @@
       </c>
       <c r="B162" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0161</v>
+        <v>BAT0162</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4376,16 +4373,16 @@
       </c>
       <c r="B163" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0162</v>
+        <v>BAT0163</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4394,16 +4391,16 @@
       </c>
       <c r="B164" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0163</v>
+        <v>BAT0164</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4412,16 +4409,16 @@
       </c>
       <c r="B165" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0164</v>
+        <v>BAT0168</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4430,16 +4427,16 @@
       </c>
       <c r="B166" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0168</v>
+        <v>BAT0169</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4448,16 +4445,16 @@
       </c>
       <c r="B167" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0169</v>
+        <v>BAT0173</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4466,16 +4463,16 @@
       </c>
       <c r="B168" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0173</v>
+        <v>BAT0174</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4484,16 +4481,16 @@
       </c>
       <c r="B169" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0174</v>
+        <v>BAT0175</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4502,16 +4499,16 @@
       </c>
       <c r="B170" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0175</v>
+        <v>BAT0176</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4520,16 +4517,16 @@
       </c>
       <c r="B171" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0176</v>
+        <v>BAT0177</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4538,16 +4535,16 @@
       </c>
       <c r="B172" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0177</v>
+        <v>BAT0178</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4556,16 +4553,16 @@
       </c>
       <c r="B173" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0178</v>
+        <v>BAT0180</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4574,16 +4571,16 @@
       </c>
       <c r="B174" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0180</v>
+        <v>BAT0181</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4592,16 +4589,16 @@
       </c>
       <c r="B175" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0181</v>
+        <v>BAT0182</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4610,16 +4607,16 @@
       </c>
       <c r="B176" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0182</v>
+        <v>BAT0183</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4628,16 +4625,16 @@
       </c>
       <c r="B177" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0183</v>
+        <v>BAT0184</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4646,16 +4643,16 @@
       </c>
       <c r="B178" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0184</v>
+        <v>BAT0185</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4664,16 +4661,16 @@
       </c>
       <c r="B179" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0185</v>
+        <v>BAT0186</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4682,16 +4679,16 @@
       </c>
       <c r="B180" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0186</v>
+        <v>BAT0188</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4700,16 +4697,16 @@
       </c>
       <c r="B181" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0188</v>
+        <v>BAT0189</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4718,16 +4715,16 @@
       </c>
       <c r="B182" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0189</v>
+        <v>BAT0190</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4736,16 +4733,16 @@
       </c>
       <c r="B183" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0190</v>
+        <v>BAT0191</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4754,16 +4751,16 @@
       </c>
       <c r="B184" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0191</v>
+        <v>BAT0192</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4772,16 +4769,16 @@
       </c>
       <c r="B185" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0192</v>
+        <v>BAT0193</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4790,16 +4787,16 @@
       </c>
       <c r="B186" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0193</v>
+        <v>BAT0194</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4808,16 +4805,16 @@
       </c>
       <c r="B187" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0194</v>
+        <v>BAT0195</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4826,16 +4823,16 @@
       </c>
       <c r="B188" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0195</v>
+        <v>BAT0197</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4844,16 +4841,16 @@
       </c>
       <c r="B189" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0197</v>
+        <v>BAT0198</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4862,16 +4859,16 @@
       </c>
       <c r="B190" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0198</v>
+        <v>BAT0199</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4880,16 +4877,16 @@
       </c>
       <c r="B191" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0199</v>
+        <v>BAT0200</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4898,16 +4895,16 @@
       </c>
       <c r="B192" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BAT0200</v>
+        <v>BAT0201</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4915,17 +4912,17 @@
         <v>0</v>
       </c>
       <c r="B193" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>BAT0201</v>
+        <f t="shared" ref="B193:B256" si="3">IF(LEN(C193)=6,LEFT(C193,3)&amp;"0"&amp;RIGHT(C193,3),C193)</f>
+        <v>BAT0202</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4933,17 +4930,17 @@
         <v>0</v>
       </c>
       <c r="B194" s="2" t="str">
-        <f t="shared" ref="B194:B257" si="3">IF(LEN(C194)=6,LEFT(C194,3)&amp;"0"&amp;RIGHT(C194,3),C194)</f>
-        <v>BAT0202</v>
+        <f t="shared" si="3"/>
+        <v>BAT0203</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4952,16 +4949,16 @@
       </c>
       <c r="B195" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0203</v>
+        <v>BAT0207</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4970,16 +4967,16 @@
       </c>
       <c r="B196" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0207</v>
+        <v>BAT0208</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4988,16 +4985,16 @@
       </c>
       <c r="B197" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0208</v>
+        <v>BAT0210</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5006,16 +5003,16 @@
       </c>
       <c r="B198" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0210</v>
+        <v>BAT0211</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5024,16 +5021,16 @@
       </c>
       <c r="B199" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0211</v>
+        <v>BAT0213</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5042,16 +5039,16 @@
       </c>
       <c r="B200" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0213</v>
+        <v>BAT0214</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5060,16 +5057,16 @@
       </c>
       <c r="B201" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0214</v>
+        <v>BAT0215</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5078,16 +5075,16 @@
       </c>
       <c r="B202" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0215</v>
+        <v>BAT0216</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5096,16 +5093,16 @@
       </c>
       <c r="B203" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0216</v>
+        <v>BAT0217</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5114,16 +5111,16 @@
       </c>
       <c r="B204" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0217</v>
+        <v>BAT0218</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5132,16 +5129,16 @@
       </c>
       <c r="B205" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0218</v>
+        <v>BAT0221</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5150,16 +5147,16 @@
       </c>
       <c r="B206" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0221</v>
+        <v>BAT0222</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5168,16 +5165,16 @@
       </c>
       <c r="B207" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0222</v>
+        <v>BAT0223</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5186,16 +5183,16 @@
       </c>
       <c r="B208" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0223</v>
+        <v>BAT0224</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5204,16 +5201,16 @@
       </c>
       <c r="B209" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0224</v>
+        <v>BAT0225</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5222,16 +5219,16 @@
       </c>
       <c r="B210" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0225</v>
+        <v>BAT0227</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5240,16 +5237,16 @@
       </c>
       <c r="B211" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0227</v>
+        <v>BAT0228</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5258,16 +5255,16 @@
       </c>
       <c r="B212" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0228</v>
+        <v>BAT0229</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5276,16 +5273,16 @@
       </c>
       <c r="B213" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0229</v>
+        <v>BAT0230</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5294,16 +5291,16 @@
       </c>
       <c r="B214" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0230</v>
+        <v>BAT0231</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5312,16 +5309,16 @@
       </c>
       <c r="B215" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0231</v>
+        <v>BAT0232</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5330,16 +5327,16 @@
       </c>
       <c r="B216" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0232</v>
+        <v>BAT0237</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5348,16 +5345,16 @@
       </c>
       <c r="B217" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0237</v>
+        <v>BAT0240</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5366,16 +5363,16 @@
       </c>
       <c r="B218" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0240</v>
+        <v>BAT0241</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5384,16 +5381,16 @@
       </c>
       <c r="B219" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0241</v>
+        <v>BAT0242</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5402,16 +5399,16 @@
       </c>
       <c r="B220" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0242</v>
+        <v>BAT0243</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5420,16 +5417,16 @@
       </c>
       <c r="B221" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0243</v>
+        <v>BAT0244</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5438,16 +5435,16 @@
       </c>
       <c r="B222" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0244</v>
+        <v>BAT0245</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5456,16 +5453,16 @@
       </c>
       <c r="B223" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0245</v>
+        <v>BAT0246</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5474,16 +5471,16 @@
       </c>
       <c r="B224" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0246</v>
+        <v>BAT0247</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5492,16 +5489,16 @@
       </c>
       <c r="B225" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0247</v>
+        <v>BAT0248</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5510,16 +5507,16 @@
       </c>
       <c r="B226" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0248</v>
+        <v>BAT0249</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5528,16 +5525,16 @@
       </c>
       <c r="B227" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0249</v>
+        <v>BAT0250</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5546,16 +5543,16 @@
       </c>
       <c r="B228" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0250</v>
+        <v>BAT0251</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5564,16 +5561,16 @@
       </c>
       <c r="B229" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0251</v>
+        <v>BAT0255</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5582,16 +5579,16 @@
       </c>
       <c r="B230" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0255</v>
+        <v>BAT0256</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5600,16 +5597,16 @@
       </c>
       <c r="B231" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0256</v>
+        <v>BAT0258</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5618,16 +5615,16 @@
       </c>
       <c r="B232" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0258</v>
+        <v>BAT0259</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5636,16 +5633,16 @@
       </c>
       <c r="B233" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0259</v>
+        <v>BAT0260</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5654,16 +5651,16 @@
       </c>
       <c r="B234" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0260</v>
+        <v>BAT0261</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5672,16 +5669,16 @@
       </c>
       <c r="B235" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0261</v>
+        <v>BAT0262</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5690,16 +5687,16 @@
       </c>
       <c r="B236" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0262</v>
+        <v>BAT0263</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5708,16 +5705,16 @@
       </c>
       <c r="B237" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0263</v>
+        <v>BAT0265</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5726,16 +5723,16 @@
       </c>
       <c r="B238" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0265</v>
+        <v>BAT0266</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5744,16 +5741,16 @@
       </c>
       <c r="B239" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0266</v>
+        <v>BAT0267</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5762,16 +5759,16 @@
       </c>
       <c r="B240" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0267</v>
+        <v>BAT0268</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5780,16 +5777,16 @@
       </c>
       <c r="B241" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0268</v>
+        <v>BAT0269</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5798,16 +5795,16 @@
       </c>
       <c r="B242" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0269</v>
+        <v>BAT0270</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5816,16 +5813,16 @@
       </c>
       <c r="B243" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0270</v>
+        <v>BAT0271</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5834,16 +5831,16 @@
       </c>
       <c r="B244" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0271</v>
+        <v>BAT0272</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5852,16 +5849,16 @@
       </c>
       <c r="B245" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0272</v>
+        <v>BAT0273</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5870,16 +5867,16 @@
       </c>
       <c r="B246" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0273</v>
+        <v>BAT0274</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5888,16 +5885,16 @@
       </c>
       <c r="B247" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0274</v>
+        <v>BAT0275</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5906,16 +5903,16 @@
       </c>
       <c r="B248" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0275</v>
+        <v>BAT0276</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5924,16 +5921,16 @@
       </c>
       <c r="B249" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0276</v>
+        <v>BAT0277</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5942,16 +5939,16 @@
       </c>
       <c r="B250" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0277</v>
+        <v>BAT0278</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5960,16 +5957,16 @@
       </c>
       <c r="B251" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0278</v>
+        <v>BAT0279</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5978,16 +5975,16 @@
       </c>
       <c r="B252" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0279</v>
+        <v>BAT0280</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -5996,16 +5993,16 @@
       </c>
       <c r="B253" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0280</v>
+        <v>BAT0281</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6014,16 +6011,16 @@
       </c>
       <c r="B254" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0281</v>
+        <v>BAT0283</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6032,16 +6029,16 @@
       </c>
       <c r="B255" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0283</v>
+        <v>BAT0284</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6050,16 +6047,16 @@
       </c>
       <c r="B256" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>BAT0284</v>
+        <v>BAT0285</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6067,17 +6064,17 @@
         <v>0</v>
       </c>
       <c r="B257" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>BAT0285</v>
+        <f t="shared" ref="B257:B320" si="4">IF(LEN(C257)=6,LEFT(C257,3)&amp;"0"&amp;RIGHT(C257,3),C257)</f>
+        <v>BAT0287</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6085,17 +6082,17 @@
         <v>0</v>
       </c>
       <c r="B258" s="2" t="str">
-        <f t="shared" ref="B258:B321" si="4">IF(LEN(C258)=6,LEFT(C258,3)&amp;"0"&amp;RIGHT(C258,3),C258)</f>
-        <v>BAT0287</v>
+        <f t="shared" si="4"/>
+        <v>BAT0288</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6104,16 +6101,16 @@
       </c>
       <c r="B259" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0288</v>
+        <v>BAT0289</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6122,16 +6119,16 @@
       </c>
       <c r="B260" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0289</v>
+        <v>BAT0292</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6140,16 +6137,16 @@
       </c>
       <c r="B261" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0292</v>
+        <v>BAT0294</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6158,16 +6155,16 @@
       </c>
       <c r="B262" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0294</v>
+        <v>BAT0295</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6176,16 +6173,16 @@
       </c>
       <c r="B263" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0295</v>
+        <v>BAT0296</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6194,16 +6191,16 @@
       </c>
       <c r="B264" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0296</v>
+        <v>BAT0297</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6212,16 +6209,16 @@
       </c>
       <c r="B265" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0297</v>
+        <v>BAT0298</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>271</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6230,16 +6227,16 @@
       </c>
       <c r="B266" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0298</v>
+        <v>BAT0299</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6248,16 +6245,16 @@
       </c>
       <c r="B267" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0299</v>
+        <v>BAT0302</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>273</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6266,16 +6263,16 @@
       </c>
       <c r="B268" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0302</v>
+        <v>BAT0304</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6284,16 +6281,16 @@
       </c>
       <c r="B269" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0304</v>
+        <v>BAT0306</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6302,16 +6299,16 @@
       </c>
       <c r="B270" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0306</v>
+        <v>BAT0307</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6320,16 +6317,16 @@
       </c>
       <c r="B271" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0307</v>
+        <v>BAT0308</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6338,16 +6335,16 @@
       </c>
       <c r="B272" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0308</v>
+        <v>BAT0309</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6356,16 +6353,16 @@
       </c>
       <c r="B273" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0309</v>
+        <v>BAT0314</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>279</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6374,16 +6371,16 @@
       </c>
       <c r="B274" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0314</v>
+        <v>BAT0315</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6392,16 +6389,16 @@
       </c>
       <c r="B275" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0315</v>
+        <v>BAT0316</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>281</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6410,16 +6407,16 @@
       </c>
       <c r="B276" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0316</v>
+        <v>BAT0317</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6428,16 +6425,16 @@
       </c>
       <c r="B277" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0317</v>
+        <v>BAT0318</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>283</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6446,16 +6443,16 @@
       </c>
       <c r="B278" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0318</v>
+        <v>BAT0319</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>284</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6464,16 +6461,16 @@
       </c>
       <c r="B279" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0319</v>
+        <v>BAT0320</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6482,16 +6479,16 @@
       </c>
       <c r="B280" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0320</v>
+        <v>BAT0321</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6500,16 +6497,16 @@
       </c>
       <c r="B281" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0321</v>
+        <v>BAT0322</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6518,16 +6515,16 @@
       </c>
       <c r="B282" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0322</v>
+        <v>BAT0323</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6536,16 +6533,16 @@
       </c>
       <c r="B283" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0323</v>
+        <v>BAT0324</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6554,16 +6551,16 @@
       </c>
       <c r="B284" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0324</v>
+        <v>BAT0328</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6572,16 +6569,16 @@
       </c>
       <c r="B285" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0328</v>
+        <v>BAT0329</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>291</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6590,16 +6587,16 @@
       </c>
       <c r="B286" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0329</v>
+        <v>BAT0330</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>292</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6608,16 +6605,16 @@
       </c>
       <c r="B287" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0330</v>
+        <v>BAT0331</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>293</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6626,16 +6623,16 @@
       </c>
       <c r="B288" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0331</v>
+        <v>BAT0333</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6644,16 +6641,16 @@
       </c>
       <c r="B289" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0333</v>
+        <v>BAT0334</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6662,16 +6659,16 @@
       </c>
       <c r="B290" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>BAT0334</v>
+        <v>IPA0002</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>2</v>
+        <v>297</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6680,16 +6677,16 @@
       </c>
       <c r="B291" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>IPA0002</v>
+        <v>IPA0003</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6698,16 +6695,16 @@
       </c>
       <c r="B292" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>IPA0003</v>
+        <v>PAI0002</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>299</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6716,16 +6713,16 @@
       </c>
       <c r="B293" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0002</v>
+        <v>PAI0004</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6734,16 +6731,16 @@
       </c>
       <c r="B294" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0004</v>
+        <v>PAI0046</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>302</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6752,16 +6749,16 @@
       </c>
       <c r="B295" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0046</v>
+        <v>PAI0047</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6770,16 +6767,16 @@
       </c>
       <c r="B296" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0047</v>
+        <v>PAI0048</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>304</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6788,16 +6785,16 @@
       </c>
       <c r="B297" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0048</v>
+        <v>PAI0049</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>305</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6806,16 +6803,16 @@
       </c>
       <c r="B298" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0049</v>
+        <v>PAI0005</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>306</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6824,16 +6821,16 @@
       </c>
       <c r="B299" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0005</v>
+        <v>PAI0050</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>307</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6842,16 +6839,16 @@
       </c>
       <c r="B300" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0050</v>
+        <v>PAI0051</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6860,16 +6857,16 @@
       </c>
       <c r="B301" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0051</v>
+        <v>PAI0059</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>298</v>
+      <c r="D301" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6878,16 +6875,16 @@
       </c>
       <c r="B302" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0059</v>
+        <v>PAI0006</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D302" s="1" t="e">
-        <v>#N/A</v>
+      <c r="D302" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6896,16 +6893,16 @@
       </c>
       <c r="B303" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0006</v>
+        <v>PAI0007</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6914,16 +6911,16 @@
       </c>
       <c r="B304" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0007</v>
+        <v>PAI0008</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6932,16 +6929,16 @@
       </c>
       <c r="B305" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0008</v>
+        <v>PAI0010</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>313</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6950,16 +6947,16 @@
       </c>
       <c r="B306" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0010</v>
+        <v>PAI0011</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>314</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6968,16 +6965,16 @@
       </c>
       <c r="B307" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0011</v>
+        <v>PAI0013</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>316</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -6986,16 +6983,16 @@
       </c>
       <c r="B308" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0013</v>
+        <v>PAI0014</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>317</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7004,16 +7001,16 @@
       </c>
       <c r="B309" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0014</v>
+        <v>PAI0016</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>318</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7022,16 +7019,16 @@
       </c>
       <c r="B310" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0016</v>
+        <v>PAI0018</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>319</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7040,16 +7037,16 @@
       </c>
       <c r="B311" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0018</v>
+        <v>PAI0019</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7058,16 +7055,16 @@
       </c>
       <c r="B312" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0019</v>
+        <v>PAI0020</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7076,16 +7073,16 @@
       </c>
       <c r="B313" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0020</v>
+        <v>PAI0022</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>322</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7094,16 +7091,16 @@
       </c>
       <c r="B314" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0022</v>
+        <v>PAI0023</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>323</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7112,16 +7109,16 @@
       </c>
       <c r="B315" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0023</v>
+        <v>PAI0024</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7130,16 +7127,16 @@
       </c>
       <c r="B316" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0024</v>
+        <v>PAI0025</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7148,16 +7145,16 @@
       </c>
       <c r="B317" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0025</v>
+        <v>PAI0026</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>326</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7166,16 +7163,16 @@
       </c>
       <c r="B318" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0026</v>
+        <v>PAI0027</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>327</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7184,16 +7181,16 @@
       </c>
       <c r="B319" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0027</v>
+        <v>PAI0029</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7202,16 +7199,16 @@
       </c>
       <c r="B320" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>PAI0029</v>
+        <v>PAI0031</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>329</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7219,17 +7216,17 @@
         <v>0</v>
       </c>
       <c r="B321" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PAI0031</v>
+        <f t="shared" ref="B321:B335" si="5">IF(LEN(C321)=6,LEFT(C321,3)&amp;"0"&amp;RIGHT(C321,3),C321)</f>
+        <v>PAI0032</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>330</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7237,17 +7234,17 @@
         <v>0</v>
       </c>
       <c r="B322" s="2" t="str">
-        <f t="shared" ref="B322:B336" si="5">IF(LEN(C322)=6,LEFT(C322,3)&amp;"0"&amp;RIGHT(C322,3),C322)</f>
-        <v>PAI0032</v>
+        <f t="shared" si="5"/>
+        <v>PAI0035</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7256,16 +7253,16 @@
       </c>
       <c r="B323" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0035</v>
+        <v>PAI0036</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>332</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7274,16 +7271,16 @@
       </c>
       <c r="B324" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0036</v>
+        <v>PAI0037</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>333</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7292,16 +7289,16 @@
       </c>
       <c r="B325" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0037</v>
+        <v>PAI0041</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7310,16 +7307,16 @@
       </c>
       <c r="B326" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0041</v>
+        <v>PAI0042</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7328,16 +7325,16 @@
       </c>
       <c r="B327" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0042</v>
+        <v>PAI0043</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7346,16 +7343,16 @@
       </c>
       <c r="B328" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0043</v>
+        <v>PAI0044</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7364,16 +7361,16 @@
       </c>
       <c r="B329" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0044</v>
+        <v>PAI0045</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7382,16 +7379,16 @@
       </c>
       <c r="B330" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>PAI0045</v>
+        <v>RBAT019</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7400,16 +7397,16 @@
       </c>
       <c r="B331" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>RBAT019</v>
+        <v>RBAT023</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7418,16 +7415,16 @@
       </c>
       <c r="B332" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>RBAT023</v>
+        <v>RBAT085</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7436,16 +7433,16 @@
       </c>
       <c r="B333" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>RBAT085</v>
+        <v>RBAT244</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7454,16 +7451,16 @@
       </c>
       <c r="B334" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>RBAT244</v>
+        <v>RBAT294</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -7472,34 +7469,16 @@
       </c>
       <c r="B335" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>RBAT294</v>
+        <v>RPAI005</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>344</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>5</v>
+        <v>297</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B336" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>RPAI005</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
